--- a/data/grades_lesson_3.xlsx
+++ b/data/grades_lesson_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BB4D68-87FE-408F-AF60-7E6E0EB1B12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B3ED94-27BC-4568-B626-011E41D5E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6DD8FBB7-01B9-4D8C-98F0-C8B40FB25149}"/>
   </bookViews>
